--- a/words_CZ/11.xlsx
+++ b/words_CZ/11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE7024D-7F8C-43C2-AA95-289EA84C2EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B33523-9B6C-44E3-9756-F7A535948E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="452">
-  <si>
-    <t>zakázáno</t>
-  </si>
-  <si>
-    <t>toilet, restroom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="466">
   <si>
     <t>заборонено</t>
   </si>
@@ -39,48 +33,12 @@
     <t>запрещено</t>
   </si>
   <si>
-    <t>byt</t>
-  </si>
-  <si>
-    <t>cizinecká policie</t>
-  </si>
-  <si>
-    <t>detektivka</t>
-  </si>
-  <si>
-    <t>dětský pokoj</t>
-  </si>
-  <si>
-    <t>droga</t>
-  </si>
-  <si>
-    <t>důvod</t>
-  </si>
-  <si>
-    <t>hluk</t>
-  </si>
-  <si>
     <t>Hoří!</t>
   </si>
   <si>
-    <t>inzerát</t>
-  </si>
-  <si>
     <t>jasně</t>
   </si>
   <si>
-    <t>jih</t>
-  </si>
-  <si>
-    <t>křižovatka</t>
-  </si>
-  <si>
-    <t>kuchyňská linka</t>
-  </si>
-  <si>
-    <t>levý</t>
-  </si>
-  <si>
     <t>maximálně</t>
   </si>
   <si>
@@ -90,108 +48,27 @@
     <t>minus</t>
   </si>
   <si>
-    <t>Morava</t>
-  </si>
-  <si>
-    <t>myčka</t>
-  </si>
-  <si>
-    <t>nájem</t>
-  </si>
-  <si>
     <t>naštěstí</t>
   </si>
   <si>
-    <t>nervózní</t>
-  </si>
-  <si>
-    <t>normální</t>
-  </si>
-  <si>
     <t>podle mě</t>
   </si>
   <si>
-    <t>pračka</t>
-  </si>
-  <si>
-    <t>přátelský</t>
-  </si>
-  <si>
-    <t>pravý</t>
-  </si>
-  <si>
     <t>proto</t>
   </si>
   <si>
-    <t>sever</t>
-  </si>
-  <si>
-    <t>šikovný</t>
-  </si>
-  <si>
-    <t>Slovensko</t>
-  </si>
-  <si>
-    <t>sprcha</t>
-  </si>
-  <si>
     <t>srazit se</t>
   </si>
   <si>
     <t>v pohodě</t>
   </si>
   <si>
-    <t>vana</t>
-  </si>
-  <si>
-    <t>vstup</t>
-  </si>
-  <si>
     <t>výborně</t>
   </si>
   <si>
-    <t>východ</t>
-  </si>
-  <si>
-    <t>záchod</t>
-  </si>
-  <si>
-    <t>zákaz parkování</t>
-  </si>
-  <si>
-    <t>zakázán</t>
-  </si>
-  <si>
-    <t>zámek</t>
-  </si>
-  <si>
-    <t>západ</t>
-  </si>
-  <si>
-    <t>zastavit</t>
-  </si>
-  <si>
-    <t>značka</t>
-  </si>
-  <si>
-    <t>zrcadlo</t>
-  </si>
-  <si>
-    <t>zvláštní</t>
-  </si>
-  <si>
     <t>během</t>
   </si>
   <si>
-    <t>протягом, під час</t>
-  </si>
-  <si>
-    <t>в течение, во время</t>
-  </si>
-  <si>
-    <t>during</t>
-  </si>
-  <si>
     <t>квартира</t>
   </si>
   <si>
@@ -201,111 +78,36 @@
     <t>být o</t>
   </si>
   <si>
-    <t>бути про (щось), йтися про</t>
-  </si>
-  <si>
-    <t>быть о (чем-то), идти речь о</t>
-  </si>
-  <si>
-    <t>to be about</t>
-  </si>
-  <si>
-    <t>centrum</t>
-  </si>
-  <si>
     <t>центр</t>
   </si>
   <si>
-    <t>centre, downtown</t>
-  </si>
-  <si>
-    <t>v centru</t>
-  </si>
-  <si>
-    <t>у центрі</t>
-  </si>
-  <si>
     <t>в центре</t>
   </si>
   <si>
-    <t>in the centre/downtown</t>
-  </si>
-  <si>
-    <t>поліція у справах іноземців</t>
-  </si>
-  <si>
     <t>полиция по делам иностранцев</t>
   </si>
   <si>
-    <t>foreign police, immigration police</t>
-  </si>
-  <si>
     <t>детектив (книга, фільм)</t>
   </si>
   <si>
     <t>детектив (книга, фильм)</t>
   </si>
   <si>
-    <t>detective story, crime fiction</t>
-  </si>
-  <si>
     <t>дитяча кімната</t>
   </si>
   <si>
     <t>детская комната</t>
   </si>
   <si>
-    <t>children's room, nursery</t>
-  </si>
-  <si>
-    <t>наркотик, ліки, препарат</t>
-  </si>
-  <si>
-    <t>наркотик, лекарство, препарат</t>
-  </si>
-  <si>
-    <t>drug, medicine</t>
-  </si>
-  <si>
-    <t>причина, привід</t>
-  </si>
-  <si>
-    <t>причина, повод</t>
-  </si>
-  <si>
-    <t>reason, motive</t>
-  </si>
-  <si>
-    <t>hasič</t>
-  </si>
-  <si>
-    <t>пожежник, рятувальник</t>
-  </si>
-  <si>
-    <t>пожарный, спасатель</t>
-  </si>
-  <si>
     <t>firefighter (male)</t>
   </si>
   <si>
-    <t>hasička</t>
-  </si>
-  <si>
-    <t>пожежниця, рятувальниця</t>
-  </si>
-  <si>
     <t>firefighter (female)</t>
   </si>
   <si>
-    <t>шум, гамір</t>
-  </si>
-  <si>
     <t>шум, гам</t>
   </si>
   <si>
-    <t>noise, clamour</t>
-  </si>
-  <si>
     <t>Горить!, Пожежа!</t>
   </si>
   <si>
@@ -315,24 +117,6 @@
     <t>Fire!</t>
   </si>
   <si>
-    <t>оголошення, реклама</t>
-  </si>
-  <si>
-    <t>объявление, реклама</t>
-  </si>
-  <si>
-    <t>advertisement, classified ad</t>
-  </si>
-  <si>
-    <t>ясно, зрозуміло, звичайно</t>
-  </si>
-  <si>
-    <t>ясно, понятно, конечно</t>
-  </si>
-  <si>
-    <t>clearly, obviously, sure</t>
-  </si>
-  <si>
     <t>південь</t>
   </si>
   <si>
@@ -342,93 +126,27 @@
     <t>south</t>
   </si>
   <si>
-    <t>krást</t>
-  </si>
-  <si>
-    <t>красти, викрадати (недок.)</t>
-  </si>
-  <si>
-    <t>воровать, красть (недок.)</t>
-  </si>
-  <si>
-    <t>to steal (impf.)</t>
-  </si>
-  <si>
     <t>kradu</t>
   </si>
   <si>
-    <t>я краду</t>
-  </si>
-  <si>
-    <t>я ворую</t>
-  </si>
-  <si>
     <t>I steal</t>
   </si>
   <si>
-    <t>kradl</t>
-  </si>
-  <si>
-    <t>він крав</t>
-  </si>
-  <si>
-    <t>он воровал</t>
-  </si>
-  <si>
     <t>he stole</t>
   </si>
   <si>
-    <t>ukrást</t>
-  </si>
-  <si>
-    <t>вкрасти, викрасти (док.)</t>
-  </si>
-  <si>
-    <t>украсть, похитить (док.)</t>
-  </si>
-  <si>
-    <t>to steal (pf.)</t>
-  </si>
-  <si>
     <t>перехрестя</t>
   </si>
   <si>
-    <t>перекресток</t>
-  </si>
-  <si>
-    <t>crossroads, intersection</t>
-  </si>
-  <si>
     <t>кухонний гарнітур</t>
   </si>
   <si>
     <t>кухонный гарнитур</t>
   </si>
   <si>
-    <t>kitchen unit, fitted kitchen</t>
-  </si>
-  <si>
     <t>kvůli</t>
   </si>
   <si>
-    <t>через, задля, заради</t>
-  </si>
-  <si>
-    <t>из-за, ради</t>
-  </si>
-  <si>
-    <t>because of, due to, for the sake of</t>
-  </si>
-  <si>
-    <t>legrace</t>
-  </si>
-  <si>
-    <t>веселощі, жарт, розвага</t>
-  </si>
-  <si>
-    <t>веселье, шутка, развлечение</t>
-  </si>
-  <si>
     <t>fun, joke</t>
   </si>
   <si>
@@ -438,54 +156,30 @@
     <t>левый</t>
   </si>
   <si>
-    <t>left (adj.)</t>
-  </si>
-  <si>
-    <t>levá</t>
-  </si>
-  <si>
     <t>ліва</t>
   </si>
   <si>
     <t>левая</t>
   </si>
   <si>
-    <t>levé</t>
-  </si>
-  <si>
     <t>ліве</t>
   </si>
   <si>
     <t>левое</t>
   </si>
   <si>
-    <t>ložnice</t>
-  </si>
-  <si>
     <t>спальня</t>
   </si>
   <si>
     <t>bedroom</t>
   </si>
   <si>
-    <t>максимально, щонайбільше</t>
-  </si>
-  <si>
-    <t>максимально, самое большее</t>
-  </si>
-  <si>
     <t>maximum, at most</t>
   </si>
   <si>
-    <t>щомісячно, на місяць</t>
-  </si>
-  <si>
     <t>ежемесячно, в месяц</t>
   </si>
   <si>
-    <t>monthly</t>
-  </si>
-  <si>
     <t>мінус</t>
   </si>
   <si>
@@ -498,267 +192,30 @@
     <t>Моравия</t>
   </si>
   <si>
-    <t>Moravia (Czech region)</t>
-  </si>
-  <si>
-    <t>посудомийна машина, мийка</t>
-  </si>
-  <si>
-    <t>посудомоечная машина, мойка</t>
-  </si>
-  <si>
-    <t>dishwasher, car wash</t>
-  </si>
-  <si>
-    <t>оренда, найм, квартирна плата</t>
-  </si>
-  <si>
-    <t>аренда, наем, квартирная плата</t>
-  </si>
-  <si>
     <t>rent</t>
   </si>
   <si>
-    <t>на щастя, на вдачу</t>
-  </si>
-  <si>
-    <t>к счастью, по счастливой случайности</t>
-  </si>
-  <si>
-    <t>fortunately, luckily</t>
-  </si>
-  <si>
-    <t>neboj se</t>
-  </si>
-  <si>
-    <t>не бійся</t>
-  </si>
-  <si>
-    <t>не бойся</t>
-  </si>
-  <si>
-    <t>don't be afraid (informal)</t>
-  </si>
-  <si>
-    <t>nebojte se</t>
-  </si>
-  <si>
-    <t>не бійтеся</t>
-  </si>
-  <si>
-    <t>не бойтесь</t>
-  </si>
-  <si>
-    <t>don't be afraid (formal/plural)</t>
-  </si>
-  <si>
-    <t>нервовий, схвильований</t>
-  </si>
-  <si>
-    <t>нервный, взволнованный</t>
-  </si>
-  <si>
-    <t>nervous</t>
-  </si>
-  <si>
-    <t>нормальний, звичайний</t>
-  </si>
-  <si>
-    <t>нормальный, обычный</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>novinář</t>
-  </si>
-  <si>
-    <t>журналіст, репортер</t>
-  </si>
-  <si>
-    <t>журналист, репортер</t>
-  </si>
-  <si>
     <t>journalist (male)</t>
   </si>
   <si>
-    <t>novinářka</t>
-  </si>
-  <si>
-    <t>журналістка, репортерка</t>
-  </si>
-  <si>
-    <t>журналистка, репортер</t>
-  </si>
-  <si>
     <t>journalist (female)</t>
   </si>
   <si>
-    <t>obývací pokoj</t>
-  </si>
-  <si>
-    <t>вітальня, зала</t>
-  </si>
-  <si>
-    <t>гостиная, зал</t>
-  </si>
-  <si>
     <t>living room</t>
   </si>
   <si>
-    <t>obývák</t>
-  </si>
-  <si>
-    <t>вітальня (розмовне)</t>
-  </si>
-  <si>
     <t>гостиная (разг.)</t>
   </si>
   <si>
     <t>living room (colloquial)</t>
   </si>
   <si>
-    <t>počkej</t>
-  </si>
-  <si>
-    <t>почекай</t>
-  </si>
-  <si>
-    <t>подожди</t>
-  </si>
-  <si>
-    <t>wait (informal)</t>
-  </si>
-  <si>
-    <t>počkejte</t>
-  </si>
-  <si>
-    <t>почекайте</t>
-  </si>
-  <si>
-    <t>подождите</t>
-  </si>
-  <si>
-    <t>wait (formal/plural)</t>
-  </si>
-  <si>
-    <t>podívej se</t>
-  </si>
-  <si>
-    <t>подивися</t>
-  </si>
-  <si>
-    <t>посмотри</t>
-  </si>
-  <si>
-    <t>look (informal)</t>
-  </si>
-  <si>
-    <t>podívejte se</t>
-  </si>
-  <si>
-    <t>подивіться</t>
-  </si>
-  <si>
-    <t>посмотрите</t>
-  </si>
-  <si>
-    <t>look (formal/plural)</t>
-  </si>
-  <si>
-    <t>на мою думку, по-моєму</t>
-  </si>
-  <si>
-    <t>по моему мнению, по-моему</t>
-  </si>
-  <si>
-    <t>in my opinion</t>
-  </si>
-  <si>
-    <t>podnájem</t>
-  </si>
-  <si>
-    <t>суборенда, піднайом</t>
-  </si>
-  <si>
-    <t>субаренда, поднаем</t>
-  </si>
-  <si>
-    <t>sub-lease, sub-rent</t>
-  </si>
-  <si>
-    <t>bydlet v podnájmu</t>
-  </si>
-  <si>
-    <t>жити в суборенді, винаймати житло</t>
-  </si>
-  <si>
-    <t>жить в субаренде, снимать жилье</t>
-  </si>
-  <si>
-    <t>to live in a sub-let, to rent a place</t>
-  </si>
-  <si>
     <t>pokračovat</t>
   </si>
   <si>
-    <t>продовжувати, вести далі (недок.)</t>
-  </si>
-  <si>
-    <t>продолжать (недок.)</t>
-  </si>
-  <si>
-    <t>to continue, to proceed (impf.)</t>
-  </si>
-  <si>
-    <t>postavit</t>
-  </si>
-  <si>
-    <t>поставити, побудувати (док.)</t>
-  </si>
-  <si>
-    <t>поставить, построить (док.)</t>
-  </si>
-  <si>
-    <t>to place, to build, to construct (pf.)</t>
-  </si>
-  <si>
-    <t>stavět</t>
-  </si>
-  <si>
-    <t>ставити, будувати (недок.)</t>
-  </si>
-  <si>
-    <t>ставить, строить (недок.)</t>
-  </si>
-  <si>
-    <t>to place, to build, to construct (impf.)</t>
-  </si>
-  <si>
-    <t>požádat</t>
-  </si>
-  <si>
-    <t>попросити, подати заяву (док.)</t>
-  </si>
-  <si>
-    <t>попросить, подать заявление (док.)</t>
-  </si>
-  <si>
-    <t>to ask, to request, to apply (pf.)</t>
-  </si>
-  <si>
-    <t>žádat</t>
-  </si>
-  <si>
-    <t>просити, вимагати (недок.)</t>
-  </si>
-  <si>
-    <t>просить, требовать (недок.)</t>
-  </si>
-  <si>
-    <t>to ask, to request, to demand (impf.)</t>
-  </si>
-  <si>
     <t>пральна машина</t>
   </si>
   <si>
@@ -771,207 +228,18 @@
     <t>дружній, приятельський</t>
   </si>
   <si>
-    <t>дружеский, приятельский</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>přátelská</t>
-  </si>
-  <si>
     <t>дружня, приятельська</t>
   </si>
   <si>
-    <t>дружеская, приятельская</t>
-  </si>
-  <si>
-    <t>přátelské</t>
-  </si>
-  <si>
     <t>дружнє, приятельське</t>
   </si>
   <si>
-    <t>дружеское, приятельское</t>
-  </si>
-  <si>
-    <t>правий, справжній, істинний</t>
-  </si>
-  <si>
-    <t>правый, настоящий, истинный</t>
-  </si>
-  <si>
-    <t>right (adj.), genuine, true</t>
-  </si>
-  <si>
-    <t>pravá</t>
-  </si>
-  <si>
-    <t>права, справжня, істинна</t>
-  </si>
-  <si>
-    <t>правая, настоящая, истинная</t>
-  </si>
-  <si>
-    <t>pravé</t>
-  </si>
-  <si>
-    <t>праве, справжнє, істинне</t>
-  </si>
-  <si>
-    <t>правое, настоящее, истинное</t>
-  </si>
-  <si>
-    <t>překládat z do</t>
-  </si>
-  <si>
-    <t>перекладати з (мови) на (мову) (недок.)</t>
-  </si>
-  <si>
-    <t>переводить с (языка) на (язык) (недок.)</t>
-  </si>
-  <si>
-    <t>to translate from to (impf.)</t>
-  </si>
-  <si>
-    <t>přeložit z do</t>
-  </si>
-  <si>
-    <t>перекласти з (мови) на (мову) (док.)</t>
-  </si>
-  <si>
-    <t>перевести с (языка) на (язык) (док.)</t>
-  </si>
-  <si>
-    <t>to translate from to (pf.)</t>
-  </si>
-  <si>
-    <t>přestěhovat se</t>
-  </si>
-  <si>
-    <t>переїхати, переселитися (док.)</t>
-  </si>
-  <si>
-    <t>переехать, переселиться (док.)</t>
-  </si>
-  <si>
-    <t>to move (house/residence) (pf.)</t>
-  </si>
-  <si>
-    <t>stěhovat se</t>
-  </si>
-  <si>
-    <t>переїжджати, переселятися (недок.)</t>
-  </si>
-  <si>
-    <t>переезжать, переселяться (недок.)</t>
-  </si>
-  <si>
-    <t>to move (house/residence) (impf.)</t>
-  </si>
-  <si>
-    <t>prodávat</t>
-  </si>
-  <si>
-    <t>продавати (недок.)</t>
-  </si>
-  <si>
-    <t>продавать (недок.)</t>
-  </si>
-  <si>
-    <t>to sell (impf.)</t>
-  </si>
-  <si>
-    <t>prodat</t>
-  </si>
-  <si>
-    <t>продати (док.)</t>
-  </si>
-  <si>
-    <t>продать (док.)</t>
-  </si>
-  <si>
-    <t>to sell (pf.)</t>
-  </si>
-  <si>
-    <t>pronajímat</t>
-  </si>
-  <si>
-    <t>здавати в оренду, наймати (недок.)</t>
-  </si>
-  <si>
-    <t>сдавать в аренду, нанимать (недок.)</t>
-  </si>
-  <si>
-    <t>to rent out, to lease (impf.)</t>
-  </si>
-  <si>
-    <t>pronajmout</t>
-  </si>
-  <si>
-    <t>здати в оренду, найняти (док.)</t>
-  </si>
-  <si>
-    <t>сдать в аренду, нанять (док.)</t>
-  </si>
-  <si>
-    <t>to rent out, to lease (pf.)</t>
-  </si>
-  <si>
     <t>тому, через це</t>
   </si>
   <si>
-    <t>поэтому, из-за этого</t>
-  </si>
-  <si>
     <t>therefore, that's why</t>
   </si>
   <si>
-    <t>řekni</t>
-  </si>
-  <si>
-    <t>скажи</t>
-  </si>
-  <si>
-    <t>say, tell (informal)</t>
-  </si>
-  <si>
-    <t>řekněte</t>
-  </si>
-  <si>
-    <t>скажіть</t>
-  </si>
-  <si>
-    <t>скажите</t>
-  </si>
-  <si>
-    <t>say, tell (formal/plural)</t>
-  </si>
-  <si>
-    <t>rozzlobit se (na)</t>
-  </si>
-  <si>
-    <t>розсердитися, розізлитися (на) (док.)</t>
-  </si>
-  <si>
-    <t>рассердиться, разозлиться (на) (док.)</t>
-  </si>
-  <si>
-    <t>to get angry (at) (pf.)</t>
-  </si>
-  <si>
-    <t>zlobit se (na)</t>
-  </si>
-  <si>
-    <t>сердитися, злитися (на) (недок.)</t>
-  </si>
-  <si>
-    <t>сердиться, злиться (на) (недок.)</t>
-  </si>
-  <si>
-    <t>to be angry (at) (impf.)</t>
-  </si>
-  <si>
     <t>північ</t>
   </si>
   <si>
@@ -981,63 +249,6 @@
     <t>north</t>
   </si>
   <si>
-    <t>вмілий, здібний, зручний</t>
-  </si>
-  <si>
-    <t>умелый, способный, удобный</t>
-  </si>
-  <si>
-    <t>clever, capable, handy (male)</t>
-  </si>
-  <si>
-    <t>šikovná</t>
-  </si>
-  <si>
-    <t>вміла, здібна, зручна</t>
-  </si>
-  <si>
-    <t>умелая, способная, удобная</t>
-  </si>
-  <si>
-    <t>clever, capable, handy (female)</t>
-  </si>
-  <si>
-    <t>šikovné</t>
-  </si>
-  <si>
-    <t>вміле, здібне, зручне</t>
-  </si>
-  <si>
-    <t>умелое, способное, удобное</t>
-  </si>
-  <si>
-    <t>clever, capable, handy (neut.)</t>
-  </si>
-  <si>
-    <t>slibovat</t>
-  </si>
-  <si>
-    <t>обіцяти (недок.)</t>
-  </si>
-  <si>
-    <t>обещать (недок.)</t>
-  </si>
-  <si>
-    <t>to promise (impf.)</t>
-  </si>
-  <si>
-    <t>slíbit</t>
-  </si>
-  <si>
-    <t>пообіцяти (док.)</t>
-  </si>
-  <si>
-    <t>пообещать (док.)</t>
-  </si>
-  <si>
-    <t>to promise (pf.)</t>
-  </si>
-  <si>
     <t>Словаччина</t>
   </si>
   <si>
@@ -1050,54 +261,12 @@
     <t>souhlasit s</t>
   </si>
   <si>
-    <t>погоджуватися з, давати згоду на (недок.)</t>
-  </si>
-  <si>
-    <t>соглашаться с, давать согласие на (недок.)</t>
-  </si>
-  <si>
-    <t>to agree with, to consent to (impf.)</t>
-  </si>
-  <si>
     <t>душ</t>
   </si>
   <si>
     <t>shower</t>
   </si>
   <si>
-    <t>зіткнутися, врізатися</t>
-  </si>
-  <si>
-    <t>столкнуться, врезаться</t>
-  </si>
-  <si>
-    <t>to collide, to crash</t>
-  </si>
-  <si>
-    <t>stůj</t>
-  </si>
-  <si>
-    <t>стій, зупинись</t>
-  </si>
-  <si>
-    <t>стой, остановись</t>
-  </si>
-  <si>
-    <t>stand, stop (informal)</t>
-  </si>
-  <si>
-    <t>stůjte</t>
-  </si>
-  <si>
-    <t>стійте, зупиніться</t>
-  </si>
-  <si>
-    <t>стойте, остановитесь</t>
-  </si>
-  <si>
-    <t>stand, stop (formal/plural)</t>
-  </si>
-  <si>
     <t>mít u sebe</t>
   </si>
   <si>
@@ -1107,219 +276,36 @@
     <t>иметь при себе</t>
   </si>
   <si>
-    <t>to have with oneself</t>
-  </si>
-  <si>
     <t>ukradnu</t>
   </si>
   <si>
-    <t>я вкраду</t>
-  </si>
-  <si>
-    <t>я украду</t>
-  </si>
-  <si>
     <t>I will steal</t>
   </si>
   <si>
-    <t>ukradl</t>
-  </si>
-  <si>
-    <t>він вкрав</t>
-  </si>
-  <si>
-    <t>он украл</t>
-  </si>
-  <si>
-    <t>utíkej</t>
-  </si>
-  <si>
-    <t>тікай, біжи</t>
-  </si>
-  <si>
-    <t>убегай, беги</t>
-  </si>
-  <si>
-    <t>run away, run (informal)</t>
-  </si>
-  <si>
-    <t>utíkejte</t>
-  </si>
-  <si>
-    <t>тікайте, біжіть</t>
-  </si>
-  <si>
-    <t>убегайте, бегите</t>
-  </si>
-  <si>
-    <t>run away, run (formal/plural)</t>
-  </si>
-  <si>
-    <t>в порядку, спокійно, гаразд</t>
-  </si>
-  <si>
-    <t>в порядке, спокойно, ладно</t>
-  </si>
-  <si>
-    <t>in peace, okay, cool</t>
-  </si>
-  <si>
     <t>ванна</t>
   </si>
   <si>
-    <t>bathtub, bath</t>
-  </si>
-  <si>
-    <t>vousy</t>
-  </si>
-  <si>
-    <t>борода, вуса</t>
-  </si>
-  <si>
-    <t>борода, усы</t>
-  </si>
-  <si>
-    <t>beard, moustache</t>
-  </si>
-  <si>
-    <t>všichni</t>
-  </si>
-  <si>
-    <t>всі, усі (чол.)</t>
-  </si>
-  <si>
-    <t>все, все</t>
-  </si>
-  <si>
-    <t>all, everyone (masc. animate)</t>
-  </si>
-  <si>
-    <t>všímat si</t>
-  </si>
-  <si>
-    <t>помічати, звертати увагу на (недок.)</t>
-  </si>
-  <si>
-    <t>замечать, обращать внимание на (недок.)</t>
-  </si>
-  <si>
-    <t>to notice, to pay attention to (impf.)</t>
-  </si>
-  <si>
-    <t>všimnout si</t>
-  </si>
-  <si>
-    <t>помітити, звернути увагу на (док.)</t>
-  </si>
-  <si>
-    <t>заметить, обратить внимание на (док.)</t>
-  </si>
-  <si>
-    <t>to notice, to pay attention to (pf.)</t>
-  </si>
-  <si>
-    <t>вхід, вступ</t>
-  </si>
-  <si>
-    <t>вход, вступление</t>
-  </si>
-  <si>
     <t>entrance, entry</t>
   </si>
   <si>
     <t>відмінно, чудово</t>
   </si>
   <si>
-    <t>отлично, прекрасно</t>
-  </si>
-  <si>
-    <t>excellent, great</t>
-  </si>
-  <si>
-    <t>схід, вихід</t>
-  </si>
-  <si>
-    <t>восток, выход</t>
-  </si>
-  <si>
-    <t>east, exit</t>
-  </si>
-  <si>
-    <t>vykrást</t>
-  </si>
-  <si>
-    <t>обікрасти, пограбувати (приміщення) (док.)</t>
-  </si>
-  <si>
-    <t>обокрасть, ограбить (помещение) (док.)</t>
-  </si>
-  <si>
-    <t>to burgle, to rob (a place) (pf.)</t>
-  </si>
-  <si>
     <t>vykradu</t>
   </si>
   <si>
-    <t>я обікраду</t>
-  </si>
-  <si>
-    <t>я обворую</t>
-  </si>
-  <si>
-    <t>I will burgle/rob</t>
-  </si>
-  <si>
-    <t>vykradl</t>
-  </si>
-  <si>
-    <t>він обікрав</t>
-  </si>
-  <si>
-    <t>он обокрал</t>
-  </si>
-  <si>
-    <t>he burgled/robbed</t>
-  </si>
-  <si>
     <t>vypravovat</t>
   </si>
   <si>
-    <t>розповідати, оповідати (недок.)</t>
-  </si>
-  <si>
-    <t>рассказывать, повествовать (недок.)</t>
-  </si>
-  <si>
-    <t>to narrate, to tell (impf.)</t>
-  </si>
-  <si>
-    <t>туалет, унітаз</t>
-  </si>
-  <si>
-    <t>туалет, унитаз</t>
-  </si>
-  <si>
-    <t>заборона паркування</t>
-  </si>
-  <si>
-    <t>запрет парковки</t>
-  </si>
-  <si>
     <t>no parking</t>
   </si>
   <si>
     <t>заборонений</t>
   </si>
   <si>
-    <t>запрещен</t>
-  </si>
-  <si>
     <t>forbidden (male)</t>
   </si>
   <si>
-    <t>zakázána</t>
-  </si>
-  <si>
     <t>заборонена</t>
   </si>
   <si>
@@ -1329,42 +315,6 @@
     <t>forbidden (female)</t>
   </si>
   <si>
-    <t>forbidden (neut./adv.)</t>
-  </si>
-  <si>
-    <t>замок (будівля), замок (на дверях)</t>
-  </si>
-  <si>
-    <t>замок (здание), замок (на двери)</t>
-  </si>
-  <si>
-    <t>castle, lock</t>
-  </si>
-  <si>
-    <t>захід</t>
-  </si>
-  <si>
-    <t>запад</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>зупинити, припинити (док.)</t>
-  </si>
-  <si>
-    <t>остановить, прекратить (док.)</t>
-  </si>
-  <si>
-    <t>to stop, to halt (pf.)</t>
-  </si>
-  <si>
-    <t>знак, марка, бренд</t>
-  </si>
-  <si>
-    <t>sign, mark, brand</t>
-  </si>
-  <si>
     <t>дзеркало</t>
   </si>
   <si>
@@ -1374,13 +324,1105 @@
     <t>mirror</t>
   </si>
   <si>
-    <t>особливий, дивний, окремий</t>
-  </si>
-  <si>
-    <t>особенный, странный, отдельный</t>
-  </si>
-  <si>
-    <t>special, strange, separate</t>
+    <t>під час, протягом</t>
+  </si>
+  <si>
+    <t>во время, в течение</t>
+  </si>
+  <si>
+    <t>during, within</t>
+  </si>
+  <si>
+    <t>(M) byt</t>
+  </si>
+  <si>
+    <t>бути про (тема)</t>
+  </si>
+  <si>
+    <t>быть о (тема)</t>
+  </si>
+  <si>
+    <t>to be about (topic)</t>
+  </si>
+  <si>
+    <t>(S) centrum</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>v (S) centru</t>
+  </si>
+  <si>
+    <t>в центрі</t>
+  </si>
+  <si>
+    <t>in the center</t>
+  </si>
+  <si>
+    <t>(Ž) cizinecká policie</t>
+  </si>
+  <si>
+    <t>іноземна поліція, поліція у справах іноземців</t>
+  </si>
+  <si>
+    <t>foreign police</t>
+  </si>
+  <si>
+    <t>(Ž) detektivka</t>
+  </si>
+  <si>
+    <t>detective story, whodunit</t>
+  </si>
+  <si>
+    <t>(M) dětský pokoj</t>
+  </si>
+  <si>
+    <t>children's room</t>
+  </si>
+  <si>
+    <t>(Ž) droga</t>
+  </si>
+  <si>
+    <t>наркотик; (рідко) ліки</t>
+  </si>
+  <si>
+    <t>наркотик; (редко) лекарство</t>
+  </si>
+  <si>
+    <t>drug (narcotic); drug (medicine)</t>
+  </si>
+  <si>
+    <t>(M) důvod</t>
+  </si>
+  <si>
+    <t>причина, підстава</t>
+  </si>
+  <si>
+    <t>причина, повод, основание</t>
+  </si>
+  <si>
+    <t>reason, cause</t>
+  </si>
+  <si>
+    <t>(M) hasič</t>
+  </si>
+  <si>
+    <t>пожежник</t>
+  </si>
+  <si>
+    <t>пожарный</t>
+  </si>
+  <si>
+    <t>(Ž) hasička</t>
+  </si>
+  <si>
+    <t>пожежниця</t>
+  </si>
+  <si>
+    <t>пожарный (женщина)</t>
+  </si>
+  <si>
+    <t>(M) hluk</t>
+  </si>
+  <si>
+    <t>шум, галас</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>(M) inzerát</t>
+  </si>
+  <si>
+    <t>оголошення</t>
+  </si>
+  <si>
+    <t>объявление</t>
+  </si>
+  <si>
+    <t>advertisement, ad</t>
+  </si>
+  <si>
+    <t>ясно, звісно</t>
+  </si>
+  <si>
+    <t>ясно, конечно</t>
+  </si>
+  <si>
+    <t>clearly, sure, of course</t>
+  </si>
+  <si>
+    <t>(M) jih</t>
+  </si>
+  <si>
+    <t>krást (impf)</t>
+  </si>
+  <si>
+    <t>красти</t>
+  </si>
+  <si>
+    <t>красть, воровать</t>
+  </si>
+  <si>
+    <t>to steal (imperfective)</t>
+  </si>
+  <si>
+    <t>я краду, краду</t>
+  </si>
+  <si>
+    <t>(M) kradl</t>
+  </si>
+  <si>
+    <t>він крав, крав</t>
+  </si>
+  <si>
+    <t>он крал, крал</t>
+  </si>
+  <si>
+    <t>ukrást (pf)</t>
+  </si>
+  <si>
+    <t>вкрасти</t>
+  </si>
+  <si>
+    <t>украсть, своровать</t>
+  </si>
+  <si>
+    <t>to steal (perfective)</t>
+  </si>
+  <si>
+    <t>(Ž) křižovatka</t>
+  </si>
+  <si>
+    <t>перекрёсток</t>
+  </si>
+  <si>
+    <t>intersection, crossroads</t>
+  </si>
+  <si>
+    <t>(Ž) kuchyňská linka</t>
+  </si>
+  <si>
+    <t>kitchen unit</t>
+  </si>
+  <si>
+    <t>через (причина)</t>
+  </si>
+  <si>
+    <t>из-за (причина)</t>
+  </si>
+  <si>
+    <t>because of, due to</t>
+  </si>
+  <si>
+    <t>(Ž) legrace</t>
+  </si>
+  <si>
+    <t>веселощі, жарт</t>
+  </si>
+  <si>
+    <t>веселье, шутка</t>
+  </si>
+  <si>
+    <t>(M) levý</t>
+  </si>
+  <si>
+    <t>left (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) levá</t>
+  </si>
+  <si>
+    <t>(S) levé</t>
+  </si>
+  <si>
+    <t>(Ž) ložnice</t>
+  </si>
+  <si>
+    <t>максимально</t>
+  </si>
+  <si>
+    <t>щомісяця, на місяць</t>
+  </si>
+  <si>
+    <t>monthly, per month</t>
+  </si>
+  <si>
+    <t>(S) minus</t>
+  </si>
+  <si>
+    <t>(Ž) Morava</t>
+  </si>
+  <si>
+    <t>Moravia</t>
+  </si>
+  <si>
+    <t>(Ž) myčka (na nádobí)</t>
+  </si>
+  <si>
+    <t>посудомийна машина</t>
+  </si>
+  <si>
+    <t>посудомоечная машина</t>
+  </si>
+  <si>
+    <t>dishwasher</t>
+  </si>
+  <si>
+    <t>(M) nájem</t>
+  </si>
+  <si>
+    <t>орендна плата, оренда</t>
+  </si>
+  <si>
+    <t>арендная плата, аренда</t>
+  </si>
+  <si>
+    <t>на щастя</t>
+  </si>
+  <si>
+    <t>к счастью</t>
+  </si>
+  <si>
+    <t>luckily, fortunately</t>
+  </si>
+  <si>
+    <t>Neboj se!</t>
+  </si>
+  <si>
+    <t>Не бійся!</t>
+  </si>
+  <si>
+    <t>Не бойся!</t>
+  </si>
+  <si>
+    <t>Don't worry!, Don't be afraid! (informal)</t>
+  </si>
+  <si>
+    <t>Nebojte se!</t>
+  </si>
+  <si>
+    <t>Не бійтеся!</t>
+  </si>
+  <si>
+    <t>Не бойтесь!</t>
+  </si>
+  <si>
+    <t>Don't worry!, Don't be afraid! (formal)</t>
+  </si>
+  <si>
+    <t>(M) nervózní</t>
+  </si>
+  <si>
+    <t>знервований, нервовий</t>
+  </si>
+  <si>
+    <t>нервный</t>
+  </si>
+  <si>
+    <t>nervous (male)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) normální</t>
+  </si>
+  <si>
+    <t>нормальний, -а, -е</t>
+  </si>
+  <si>
+    <t>нормальный, -ая, -ое</t>
+  </si>
+  <si>
+    <t>(M) novinář</t>
+  </si>
+  <si>
+    <t>журналіст</t>
+  </si>
+  <si>
+    <t>журналист</t>
+  </si>
+  <si>
+    <t>(Ž) novinářka</t>
+  </si>
+  <si>
+    <t>журналістка</t>
+  </si>
+  <si>
+    <t>журналистка</t>
+  </si>
+  <si>
+    <t>(M) obývací pokoj</t>
+  </si>
+  <si>
+    <t>вітальня</t>
+  </si>
+  <si>
+    <t>гостиная</t>
+  </si>
+  <si>
+    <t>(M) obývák</t>
+  </si>
+  <si>
+    <t>вітальня (розм.)</t>
+  </si>
+  <si>
+    <t>Počkej!</t>
+  </si>
+  <si>
+    <t>Зачекай!, Почекай!</t>
+  </si>
+  <si>
+    <t>Подожди!</t>
+  </si>
+  <si>
+    <t>Wait! (informal)</t>
+  </si>
+  <si>
+    <t>Počkejte!</t>
+  </si>
+  <si>
+    <t>Зачекайте!, Почекайте!</t>
+  </si>
+  <si>
+    <t>Подождите!</t>
+  </si>
+  <si>
+    <t>Wait! (formal)</t>
+  </si>
+  <si>
+    <t>Podívej se!</t>
+  </si>
+  <si>
+    <t>Подивися!</t>
+  </si>
+  <si>
+    <t>Посмотри!</t>
+  </si>
+  <si>
+    <t>Look! (informal)</t>
+  </si>
+  <si>
+    <t>Podívejte se!</t>
+  </si>
+  <si>
+    <t>Подивіться!</t>
+  </si>
+  <si>
+    <t>Посмотрите!</t>
+  </si>
+  <si>
+    <t>Look! (formal)</t>
+  </si>
+  <si>
+    <t>як на мене, на мою думку</t>
+  </si>
+  <si>
+    <t>по-моему, по моему мнению</t>
+  </si>
+  <si>
+    <t>in my opinion, I think</t>
+  </si>
+  <si>
+    <t>(M) podnájem</t>
+  </si>
+  <si>
+    <t>суборенда</t>
+  </si>
+  <si>
+    <t>субаренда, поднаём</t>
+  </si>
+  <si>
+    <t>sublet, sublease</t>
+  </si>
+  <si>
+    <t>bydlet v (M) podnájmu</t>
+  </si>
+  <si>
+    <t>жити в суборенді</t>
+  </si>
+  <si>
+    <t>жить в субаренде, снимать комнату</t>
+  </si>
+  <si>
+    <t>to sublet, to live in a sublet</t>
+  </si>
+  <si>
+    <t>продовжувати</t>
+  </si>
+  <si>
+    <t>продолжать</t>
+  </si>
+  <si>
+    <t>to continue</t>
+  </si>
+  <si>
+    <t>postavit (pf)</t>
+  </si>
+  <si>
+    <t>збудувати, побудувати, поставити</t>
+  </si>
+  <si>
+    <t>построить, поставить</t>
+  </si>
+  <si>
+    <t>to build, to put up (perfective)</t>
+  </si>
+  <si>
+    <t>stavět (impf)</t>
+  </si>
+  <si>
+    <t>будувати, ставити</t>
+  </si>
+  <si>
+    <t>строить, ставить</t>
+  </si>
+  <si>
+    <t>to build (imperfective)</t>
+  </si>
+  <si>
+    <t>požádat (pf)</t>
+  </si>
+  <si>
+    <t>попросити (про)</t>
+  </si>
+  <si>
+    <t>попросить (о)</t>
+  </si>
+  <si>
+    <t>to ask (for), to request (perfective)</t>
+  </si>
+  <si>
+    <t>žádat (impf)</t>
+  </si>
+  <si>
+    <t>просити, вимагати</t>
+  </si>
+  <si>
+    <t>просить, требовать</t>
+  </si>
+  <si>
+    <t>to ask (for) (imperfective)</t>
+  </si>
+  <si>
+    <t>(Ž) pračka</t>
+  </si>
+  <si>
+    <t>(M) přátelský</t>
+  </si>
+  <si>
+    <t>дружелюбный, дружеский</t>
+  </si>
+  <si>
+    <t>friendly (male)</t>
+  </si>
+  <si>
+    <t>(Ž) přátelská</t>
+  </si>
+  <si>
+    <t>дружелюбная, дружеская</t>
+  </si>
+  <si>
+    <t>friendly (female)</t>
+  </si>
+  <si>
+    <t>(S) přátelské</t>
+  </si>
+  <si>
+    <t>дружелюбное, дружеское</t>
+  </si>
+  <si>
+    <t>friendly (neuter)</t>
+  </si>
+  <si>
+    <t>(M) pravý</t>
+  </si>
+  <si>
+    <t>1. правий (сторона) 2. справжній</t>
+  </si>
+  <si>
+    <t>1. правый (сторона) 2. настоящий, истинный</t>
+  </si>
+  <si>
+    <t>1. right (adj) 2. real, true (male)</t>
+  </si>
+  <si>
+    <t>(Ž) pravá</t>
+  </si>
+  <si>
+    <t>1. права 2. справжня</t>
+  </si>
+  <si>
+    <t>1. правая 2. настоящая</t>
+  </si>
+  <si>
+    <t>1. right (adj) 2. real, true (female)</t>
+  </si>
+  <si>
+    <t>(S) pravé</t>
+  </si>
+  <si>
+    <t>1. праве 2. справжнє</t>
+  </si>
+  <si>
+    <t>1. правое 2. настоящее</t>
+  </si>
+  <si>
+    <t>1. right (adj) 2. real, true (neuter)</t>
+  </si>
+  <si>
+    <t>překládat z... do... (impf)</t>
+  </si>
+  <si>
+    <t>перекладати з... на...</t>
+  </si>
+  <si>
+    <t>переводить с... на...</t>
+  </si>
+  <si>
+    <t>to translate from... to... (imperfective)</t>
+  </si>
+  <si>
+    <t>přeložit z... do... (pf)</t>
+  </si>
+  <si>
+    <t>перекласти з... на...</t>
+  </si>
+  <si>
+    <t>перевести с... на...</t>
+  </si>
+  <si>
+    <t>to translate from... to... (perfective)</t>
+  </si>
+  <si>
+    <t>přestěhovat se (pf)</t>
+  </si>
+  <si>
+    <t>переїхати (жити)</t>
+  </si>
+  <si>
+    <t>переехать (жить)</t>
+  </si>
+  <si>
+    <t>to move (house) (perfective)</t>
+  </si>
+  <si>
+    <t>stěhovat se (impf)</t>
+  </si>
+  <si>
+    <t>переїжджати</t>
+  </si>
+  <si>
+    <t>переезжать</t>
+  </si>
+  <si>
+    <t>to move (house) (imperfective)</t>
+  </si>
+  <si>
+    <t>prodávat (impf)</t>
+  </si>
+  <si>
+    <t>продавати</t>
+  </si>
+  <si>
+    <t>продавать</t>
+  </si>
+  <si>
+    <t>to sell (imperfective)</t>
+  </si>
+  <si>
+    <t>prodat (pf)</t>
+  </si>
+  <si>
+    <t>продати</t>
+  </si>
+  <si>
+    <t>продать</t>
+  </si>
+  <si>
+    <t>to sell (perfective)</t>
+  </si>
+  <si>
+    <t>pronajímat (impf)</t>
+  </si>
+  <si>
+    <t>здавати в оренду, орендувати</t>
+  </si>
+  <si>
+    <t>сдавать в аренду, арендовать</t>
+  </si>
+  <si>
+    <t>to rent (out), to lease (imperfective)</t>
+  </si>
+  <si>
+    <t>pronajmout (pf)</t>
+  </si>
+  <si>
+    <t>здати в оренду, орендувати</t>
+  </si>
+  <si>
+    <t>сдать в аренду, арендовать</t>
+  </si>
+  <si>
+    <t>to rent (out), to lease (perfective)</t>
+  </si>
+  <si>
+    <t>поэтому, потому</t>
+  </si>
+  <si>
+    <t>Řekni!</t>
+  </si>
+  <si>
+    <t>Скажи!</t>
+  </si>
+  <si>
+    <t>Say (it)!, Tell (me)! (informal)</t>
+  </si>
+  <si>
+    <t>Řekněte!</t>
+  </si>
+  <si>
+    <t>Скажіть!</t>
+  </si>
+  <si>
+    <t>Скажите!</t>
+  </si>
+  <si>
+    <t>Say (it)!, Tell (me)! (formal)</t>
+  </si>
+  <si>
+    <t>rozzlobit se (na) (pf)</t>
+  </si>
+  <si>
+    <t>розсердитися (на)</t>
+  </si>
+  <si>
+    <t>рассердиться (на), разозлиться</t>
+  </si>
+  <si>
+    <t>to get angry (at) (perfective)</t>
+  </si>
+  <si>
+    <t>zlobit se (na) (impf)</t>
+  </si>
+  <si>
+    <t>сердитися (на)</t>
+  </si>
+  <si>
+    <t>сердиться (на), злиться</t>
+  </si>
+  <si>
+    <t>to be angry (at) (imperfective)</t>
+  </si>
+  <si>
+    <t>(M) sever</t>
+  </si>
+  <si>
+    <t>(M) šikovný</t>
+  </si>
+  <si>
+    <t>вмілий, вправний, кмітливий</t>
+  </si>
+  <si>
+    <t>умелый, ловкий, толковый</t>
+  </si>
+  <si>
+    <t>skillful, handy, clever (male)</t>
+  </si>
+  <si>
+    <t>(Ž) šikovná</t>
+  </si>
+  <si>
+    <t>вміла, вправна, кмітлива</t>
+  </si>
+  <si>
+    <t>умелая, ловкая, толковая</t>
+  </si>
+  <si>
+    <t>skillful, handy, clever (female)</t>
+  </si>
+  <si>
+    <t>(S) šikovné</t>
+  </si>
+  <si>
+    <t>вміле, вправне, кмітливе</t>
+  </si>
+  <si>
+    <t>умелое, ловкое, толковое</t>
+  </si>
+  <si>
+    <t>skillful, handy, clever (neuter)</t>
+  </si>
+  <si>
+    <t>slibovat (impf)</t>
+  </si>
+  <si>
+    <t>обіцяти</t>
+  </si>
+  <si>
+    <t>обещать</t>
+  </si>
+  <si>
+    <t>to promise (imperfective)</t>
+  </si>
+  <si>
+    <t>slíbit (pf)</t>
+  </si>
+  <si>
+    <t>пообіцяти</t>
+  </si>
+  <si>
+    <t>пообещать</t>
+  </si>
+  <si>
+    <t>to promise (perfective)</t>
+  </si>
+  <si>
+    <t>(S) Slovensko</t>
+  </si>
+  <si>
+    <t>погоджуватися з</t>
+  </si>
+  <si>
+    <t>соглашаться с</t>
+  </si>
+  <si>
+    <t>to agree with</t>
+  </si>
+  <si>
+    <t>(Ž) sprcha</t>
+  </si>
+  <si>
+    <t>зіткнутися</t>
+  </si>
+  <si>
+    <t>столкнуться</t>
+  </si>
+  <si>
+    <t>to collide</t>
+  </si>
+  <si>
+    <t>to build, to put up (imperfective)</t>
+  </si>
+  <si>
+    <t>Stůj!</t>
+  </si>
+  <si>
+    <t>Стій!</t>
+  </si>
+  <si>
+    <t>Стой!</t>
+  </si>
+  <si>
+    <t>Stop! (informal)</t>
+  </si>
+  <si>
+    <t>Stůjte!</t>
+  </si>
+  <si>
+    <t>Стійте!</t>
+  </si>
+  <si>
+    <t>Стойте!</t>
+  </si>
+  <si>
+    <t>Stop! (formal)</t>
+  </si>
+  <si>
+    <t>to have with one</t>
+  </si>
+  <si>
+    <t>я вкраду, вкраду</t>
+  </si>
+  <si>
+    <t>я украду, украду</t>
+  </si>
+  <si>
+    <t>(M) ukradl</t>
+  </si>
+  <si>
+    <t>він вкрав, вкрав</t>
+  </si>
+  <si>
+    <t>он украл, украл</t>
+  </si>
+  <si>
+    <t>Utíkej!</t>
+  </si>
+  <si>
+    <t>Тікай!, Біжи!</t>
+  </si>
+  <si>
+    <t>Беги!</t>
+  </si>
+  <si>
+    <t>Run! (informal)</t>
+  </si>
+  <si>
+    <t>Utíkejte!</t>
+  </si>
+  <si>
+    <t>Тікайте!, Біжіть!</t>
+  </si>
+  <si>
+    <t>Бегите!</t>
+  </si>
+  <si>
+    <t>Run! (formal)</t>
+  </si>
+  <si>
+    <t>в порядку, нормально, спокійно (розм.)</t>
+  </si>
+  <si>
+    <t>в порядке, нормально, всё путём (разг.)</t>
+  </si>
+  <si>
+    <t>(it's) okay, fine, cool (colloquial)</t>
+  </si>
+  <si>
+    <t>(Ž) vana</t>
+  </si>
+  <si>
+    <t>bathtub</t>
+  </si>
+  <si>
+    <t>(Pl) vousy</t>
+  </si>
+  <si>
+    <t>вуса, борода</t>
+  </si>
+  <si>
+    <t>усы, борода</t>
+  </si>
+  <si>
+    <t>moustache, beard, facial hair</t>
+  </si>
+  <si>
+    <t>(Pl) všichni</t>
+  </si>
+  <si>
+    <t>всі (люди)</t>
+  </si>
+  <si>
+    <t>все (люди)</t>
+  </si>
+  <si>
+    <t>everyone, everybody</t>
+  </si>
+  <si>
+    <t>všímat si (impf) (+ Gen)</t>
+  </si>
+  <si>
+    <t>помічати (щось)</t>
+  </si>
+  <si>
+    <t>замечать (что-то)</t>
+  </si>
+  <si>
+    <t>to notice (imperfective)</t>
+  </si>
+  <si>
+    <t>všimnout si (pf) (+ Gen)</t>
+  </si>
+  <si>
+    <t>помітити (щось)</t>
+  </si>
+  <si>
+    <t>заметить (что-то)</t>
+  </si>
+  <si>
+    <t>to notice (perfective)</t>
+  </si>
+  <si>
+    <t>(M) vstup</t>
+  </si>
+  <si>
+    <t>вхід</t>
+  </si>
+  <si>
+    <t>вход</t>
+  </si>
+  <si>
+    <t>отлично, превосходно</t>
+  </si>
+  <si>
+    <t>excellently, great</t>
+  </si>
+  <si>
+    <t>(M) východ</t>
+  </si>
+  <si>
+    <t>1. схід (сторона світу) 2. вихід</t>
+  </si>
+  <si>
+    <t>1. восток (сторона света) 2. выход</t>
+  </si>
+  <si>
+    <t>1. east 2. exit</t>
+  </si>
+  <si>
+    <t>vykrást (pf)</t>
+  </si>
+  <si>
+    <t>обікрасти (приміщення)</t>
+  </si>
+  <si>
+    <t>обокрасть, ограбить (помещение)</t>
+  </si>
+  <si>
+    <t>to burgle, to rob (perfective)</t>
+  </si>
+  <si>
+    <t>я обікраду, обікраду</t>
+  </si>
+  <si>
+    <t>я обокраду, ограблю</t>
+  </si>
+  <si>
+    <t>I will burgle</t>
+  </si>
+  <si>
+    <t>(M) vykradl</t>
+  </si>
+  <si>
+    <t>він обікрав, обікрав</t>
+  </si>
+  <si>
+    <t>он обокрал, ограбил</t>
+  </si>
+  <si>
+    <t>he burgled</t>
+  </si>
+  <si>
+    <t>розповідати</t>
+  </si>
+  <si>
+    <t>рассказывать</t>
+  </si>
+  <si>
+    <t>to tell (a story)</t>
+  </si>
+  <si>
+    <t>(M) záchod</t>
+  </si>
+  <si>
+    <t>туалет</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>žádat (impf) (o)</t>
+  </si>
+  <si>
+    <t>просити, вимагати, подавати заяву (на)</t>
+  </si>
+  <si>
+    <t>просить, требовать, подавать заявление (на)</t>
+  </si>
+  <si>
+    <t>to ask (for), to request, to apply (for) (imperfective)</t>
+  </si>
+  <si>
+    <t>požádat (pf) (o)</t>
+  </si>
+  <si>
+    <t>попросити, подати заяву (на)</t>
+  </si>
+  <si>
+    <t>попросить, подать заявление (на)</t>
+  </si>
+  <si>
+    <t>to ask (for), to request, to apply (for) (perfective)</t>
+  </si>
+  <si>
+    <t>(M) zákaz parkování</t>
+  </si>
+  <si>
+    <t>паркування заборонено</t>
+  </si>
+  <si>
+    <t>парковка запрещена</t>
+  </si>
+  <si>
+    <t>(M) zakázán</t>
+  </si>
+  <si>
+    <t>запрещён</t>
+  </si>
+  <si>
+    <t>(Ž) zakázána</t>
+  </si>
+  <si>
+    <t>(S) zakázáno</t>
+  </si>
+  <si>
+    <t>forbidden (neuter)</t>
+  </si>
+  <si>
+    <t>(M) zámek</t>
+  </si>
+  <si>
+    <t>1. замок (будівля) 2. замок (дверний)</t>
+  </si>
+  <si>
+    <t>1. замок (здание) 2. замок (дверной)</t>
+  </si>
+  <si>
+    <t>1. castle, chateau 2. lock</t>
+  </si>
+  <si>
+    <t>(M) západ</t>
+  </si>
+  <si>
+    <t>1. захід (сторона світу) 2. захід сонця</t>
+  </si>
+  <si>
+    <t>1. запад (сторона света) 2. закат</t>
+  </si>
+  <si>
+    <t>1. west 2. sunset</t>
+  </si>
+  <si>
+    <t>zastavit (pf)</t>
+  </si>
+  <si>
+    <t>зупинити(ся)</t>
+  </si>
+  <si>
+    <t>остановить(ся)</t>
+  </si>
+  <si>
+    <t>to stop (perfective)</t>
+  </si>
+  <si>
+    <t>рассердиться (на)</t>
+  </si>
+  <si>
+    <t>(Ž) značka</t>
+  </si>
+  <si>
+    <t>1. знак (дорожній) 2. марка, бренд</t>
+  </si>
+  <si>
+    <t>1. знак (дорожный) 2. марка, бренд</t>
+  </si>
+  <si>
+    <t>1. sign 2. brand, make</t>
+  </si>
+  <si>
+    <t>(S) zrcadlo</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) zvláštní</t>
+  </si>
+  <si>
+    <t>1. дивний 2. особливий</t>
+  </si>
+  <si>
+    <t>1. странный, чудной 2. особый, специальный</t>
+  </si>
+  <si>
+    <t>1. strange, odd 2. special</t>
   </si>
 </sst>
 </file>
@@ -1778,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,1906 +1835,1906 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>104</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>120</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>108</v>
+        <v>145</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>126</v>
+        <v>38</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>152</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>157</v>
+        <v>54</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>215</v>
+        <v>230</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>254</v>
+        <v>68</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>288</v>
+        <v>303</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>297</v>
+        <v>69</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>32</v>
+        <v>329</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>316</v>
+        <v>72</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>336</v>
+        <v>348</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>360</v>
+        <v>82</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>108</v>
+        <v>145</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>39</v>
+        <v>402</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>399</v>
+        <v>86</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>400</v>
+        <v>87</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>410</v>
+        <v>88</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>418</v>
+        <v>89</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>240</v>
+        <v>428</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>241</v>
+        <v>429</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>242</v>
+        <v>430</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>243</v>
+        <v>431</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>236</v>
+        <v>432</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>237</v>
+        <v>433</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>238</v>
+        <v>434</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>43</v>
+        <v>436</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>426</v>
+        <v>90</v>
       </c>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>427</v>
+        <v>91</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>429</v>
+        <v>92</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>431</v>
+        <v>93</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>432</v>
+        <v>94</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>433</v>
+        <v>95</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="C119" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>437</v>
+        <v>446</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>46</v>
+        <v>448</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>309</v>
+        <v>456</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>48</v>
+        <v>457</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>49</v>
+        <v>461</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>446</v>
+        <v>96</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>447</v>
+        <v>97</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>50</v>
+        <v>462</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E127" s="4"/>
     </row>
